--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/60_Muş_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/60_Muş_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BEA3F3A-D8A8-4E91-B9B6-BC9892F6EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E4A59E-613D-4CE0-A097-181BBFA9C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{0EDCA9C4-7F11-4580-804A-27D06534E2C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{29775B06-7C3D-4B96-9980-1CF783CCF9DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -949,13 +949,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C8AAE04E-37C9-4457-AA21-1597DBDB6E3E}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5CA0AB91-8E2D-4F23-841A-7E89EC4F619E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{56DD92E8-D7EC-4BB4-A3EC-0917D9D01616}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3BB3E06F-8018-4756-BD12-E33F4865DCC9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{37861B4E-6568-489B-831E-8D8FF63206EC}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{39C4EEE9-3153-492E-AE66-FD56D2DEEF9B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{95826C2B-7232-4C81-BF53-A157094D2D87}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{744E66E2-B982-4774-B4AB-4498BCF52818}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{21402A1A-7633-4854-901B-B60A2AE1E392}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C28232FC-B200-4D52-9C0C-158D34519940}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{89BEED73-222F-4A34-8418-1667DC8C43E6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{BDACC684-DD93-4B79-8624-E7CF273CF04D}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{BEC2A5EA-FBCA-480B-8883-75F60DF187A8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{05A26AC1-B881-4FBF-9FAC-D514C81AC306}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D98B7D-0100-435C-B418-2669538C570B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F0545E-F327-4BC8-9912-25CCDC7D42F4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2578,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0373076E-C146-48CB-89A6-3F4A1ED7CCE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A0C3AC-28EE-43E3-B9E1-0601EBE133B3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3815,7 +3815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C2D08A-5791-4852-8761-61982D3C8B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A81E57-D92F-4FBE-8258-0DD6918598B8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5048,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D36062F-57D7-45F8-B7EC-9E069D83EEDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F133085-3FDB-41C7-A682-F9ECBCC8667D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6273,7 +6273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416EF3B4-97AA-4C72-8123-9CF2D83EE27F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26691395-1402-4387-8CE0-D1E6710B569D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7524,7 +7524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207DDD25-3C17-496A-B901-FF16AB1CC2A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EBC7E1-9E7F-4A96-85A9-17B641A2F3DB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8775,7 +8775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995D31A3-B634-45A4-84DC-E33D0461AE70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ACACEF-F1AE-499D-90C2-6BF661ABC6EB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10020,7 +10020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16138A-77C1-44A3-A776-56C0D2F6F639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EACAE9B-D717-4578-8344-1C0D5FE55662}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11265,7 +11265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAC5447-BB5F-418D-AD08-B52FD871DB28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AEB3CF-28F3-42C0-B409-535C41F52F9B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12508,7 +12508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFA3BDE-4F98-4C3F-BCC6-0ED238E26951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4916EC70-8D90-4189-9631-D9AC39122E4E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13747,7 +13747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A45589-DFE1-4EB2-9870-B1881415A6BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA2FA2D-C4D6-44CD-AF76-7434F38EB15F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14988,7 +14988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0921AD20-AFFF-4555-AEB0-312914B93F47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00614EB3-1D55-4DAD-BE61-3EE13B31ADE4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
